--- a/ci-platform_DB_Schema.xlsx
+++ b/ci-platform_DB_Schema.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="111">
   <si>
     <t xml:space="preserve">CI-Platform DB Schema</t>
   </si>
@@ -163,22 +163,25 @@
     <t xml:space="preserve">updated_at</t>
   </si>
   <si>
+    <t xml:space="preserve">if(deleted_at)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liked_missions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table : admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin_avtar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nvarchar</t>
+  </si>
+  <si>
     <t xml:space="preserve">deleted_at</t>
-  </si>
-  <si>
-    <t xml:space="preserve">liked_missions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table : admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">admin_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">admin_avtar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nvarchar</t>
   </si>
   <si>
     <t xml:space="preserve">Table : user_missions</t>
@@ -576,15 +579,15 @@
   </sheetPr>
   <dimension ref="A1:W133"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O93" activeCellId="0" sqref="O93"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L22" activeCellId="0" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.66"/>
@@ -1240,7 +1243,7 @@
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>44</v>
@@ -1255,7 +1258,7 @@
     </row>
     <row r="42" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1316,7 +1319,7 @@
     </row>
     <row r="45" s="4" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>11</v>
@@ -1339,25 +1342,25 @@
     </row>
     <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C47" s="6" t="n">
         <v>2</v>
@@ -1371,10 +1374,10 @@
     </row>
     <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="0" t="s">
@@ -1386,10 +1389,10 @@
     </row>
     <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C49" s="6" t="n">
         <v>2</v>
@@ -1403,10 +1406,10 @@
     </row>
     <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C50" s="6" t="n">
         <v>5</v>
@@ -1420,7 +1423,7 @@
     </row>
     <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>31</v>
@@ -1435,7 +1438,7 @@
     </row>
     <row r="55" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1473,7 +1476,7 @@
     </row>
     <row r="57" s="4" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>11</v>
@@ -1499,7 +1502,7 @@
     </row>
     <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>18</v>
@@ -1516,7 +1519,7 @@
     </row>
     <row r="63" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1600,7 +1603,7 @@
     </row>
     <row r="67" s="4" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>11</v>
@@ -1623,7 +1626,7 @@
     </row>
     <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B68" s="0" t="s">
         <v>31</v>
@@ -1638,7 +1641,7 @@
     </row>
     <row r="69" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B69" s="0" t="s">
         <v>31</v>
@@ -1653,7 +1656,7 @@
     </row>
     <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B70" s="0" t="s">
         <v>31</v>
@@ -1668,7 +1671,7 @@
     </row>
     <row r="71" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B71" s="0" t="s">
         <v>31</v>
@@ -1683,10 +1686,10 @@
     </row>
     <row r="72" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="0" t="s">
@@ -1698,10 +1701,10 @@
     </row>
     <row r="73" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="0" t="s">
@@ -1713,7 +1716,7 @@
     </row>
     <row r="74" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>25</v>
@@ -1728,10 +1731,10 @@
     </row>
     <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="0" t="s">
@@ -1743,7 +1746,7 @@
     </row>
     <row r="76" s="4" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>11</v>
@@ -1766,7 +1769,7 @@
     </row>
     <row r="77" s="4" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>11</v>
@@ -1789,10 +1792,10 @@
     </row>
     <row r="78" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="0" t="s">
@@ -1804,10 +1807,10 @@
     </row>
     <row r="79" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="0" t="s">
@@ -1819,7 +1822,7 @@
     </row>
     <row r="80" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>37</v>
@@ -1831,12 +1834,12 @@
         <v>12</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -1897,7 +1900,7 @@
     </row>
     <row r="87" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>18</v>
@@ -1927,7 +1930,7 @@
     </row>
     <row r="91" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -1989,7 +1992,7 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>18</v>
@@ -2009,7 +2012,7 @@
     </row>
     <row r="98" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -2047,7 +2050,7 @@
     </row>
     <row r="100" s="4" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>11</v>
@@ -2073,7 +2076,7 @@
     </row>
     <row r="101" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B101" s="0" t="s">
         <v>18</v>
@@ -2090,7 +2093,7 @@
     </row>
     <row r="103" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -2128,7 +2131,7 @@
     </row>
     <row r="105" s="4" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>11</v>
@@ -2174,10 +2177,10 @@
     </row>
     <row r="107" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C107" s="6"/>
       <c r="D107" s="0" t="s">
@@ -2189,7 +2192,7 @@
     </row>
     <row r="108" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B108" s="0" t="s">
         <v>25</v>
@@ -2206,7 +2209,7 @@
     </row>
     <row r="109" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B109" s="0" t="s">
         <v>25</v>
@@ -2223,7 +2226,7 @@
     </row>
     <row r="110" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B110" s="0" t="s">
         <v>31</v>
@@ -2238,7 +2241,7 @@
     </row>
     <row r="111" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B111" s="0" t="s">
         <v>25</v>
@@ -2255,7 +2258,7 @@
     </row>
     <row r="114" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -2316,7 +2319,7 @@
     </row>
     <row r="117" s="4" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>11</v>
@@ -2339,7 +2342,7 @@
     </row>
     <row r="118" s="4" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>11</v>
@@ -2362,22 +2365,22 @@
     </row>
     <row r="119" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C119" s="6"/>
       <c r="D119" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B120" s="0" t="s">
         <v>31</v>
@@ -2392,7 +2395,7 @@
     </row>
     <row r="121" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B121" s="0" t="s">
         <v>31</v>
@@ -2407,10 +2410,10 @@
     </row>
     <row r="122" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C122" s="6"/>
       <c r="D122" s="0" t="s">
@@ -2422,10 +2425,10 @@
     </row>
     <row r="123" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C123" s="6" t="n">
         <v>5</v>
@@ -2439,7 +2442,7 @@
     </row>
     <row r="124" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B124" s="0" t="s">
         <v>25</v>
@@ -2456,7 +2459,7 @@
     </row>
     <row r="127" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -2494,7 +2497,7 @@
     </row>
     <row r="129" s="4" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>11</v>
@@ -2520,7 +2523,7 @@
     </row>
     <row r="130" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B130" s="0" t="s">
         <v>18</v>
@@ -2537,7 +2540,7 @@
     </row>
     <row r="131" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B131" s="0" t="s">
         <v>31</v>
@@ -2551,7 +2554,7 @@
     </row>
     <row r="132" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B132" s="0" t="s">
         <v>31</v>
@@ -2565,7 +2568,7 @@
     </row>
     <row r="133" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B133" s="0" t="s">
         <v>37</v>
@@ -2577,7 +2580,7 @@
         <v>12</v>
       </c>
       <c r="E133" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
